--- a/data/trans_orig/P25A$medico-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P25A$medico-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F19DD386-DC45-4B8E-8055-71B024763410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A903CE45-30DF-426E-867E-9D9356C31F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1ABC5599-2972-4139-8464-EBAF2A88852E}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{916A0790-B977-4235-9420-8DAA75C17AA8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,9 +38,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="909">
-  <si>
-    <t>Población según motivo para dejar de fumar en 2007</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="1008">
+  <si>
+    <t>Población según motivo para dejar de fumar (multirrespuesta) en 2007</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -61,7 +61,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Consejo médico</t>
@@ -193,7 +193,7 @@
     <t>32,23%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>11,05%</t>
@@ -343,7 +343,7 @@
     <t>23,17%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>6,82%</t>
@@ -496,7 +496,7 @@
     <t>9,16%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>16,39%</t>
@@ -649,7 +649,7 @@
     <t>7,73%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>33,7%</t>
@@ -793,1932 +793,2235 @@
     <t>7,49%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>46,2%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>54,01%</t>
-  </si>
-  <si>
-    <t>39,99%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>47,55%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>57,52%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>46,02%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
+  </si>
+  <si>
+    <t>56,26%</t>
+  </si>
+  <si>
+    <t>79,15%</t>
+  </si>
+  <si>
+    <t>46,28%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>55,18%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>52,52%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>42,6%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>51,49%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>56,09%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>45,38%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>54,79%</t>
+  </si>
+  <si>
+    <t>72,94%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>47,46%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>56,22%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>57,47%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>61,65%</t>
+  </si>
+  <si>
+    <t>66,14%</t>
+  </si>
+  <si>
+    <t>60,06%</t>
+  </si>
+  <si>
+    <t>71,86%</t>
+  </si>
+  <si>
+    <t>59,96%</t>
+  </si>
+  <si>
+    <t>56,47%</t>
+  </si>
+  <si>
+    <t>63,24%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según motivo para dejar de fumar (multirrespuesta) en 2012</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>60,31%</t>
+  </si>
+  <si>
+    <t>74,08%</t>
+  </si>
+  <si>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
+  </si>
+  <si>
+    <t>63,65%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>73,81%</t>
+  </si>
+  <si>
+    <t>61,88%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>74,05%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>74,33%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
   </si>
   <si>
     <t>20,03%</t>
   </si>
   <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>72,64%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>69,64%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>79,35%</t>
+  </si>
+  <si>
+    <t>73,63%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>65,73%</t>
+  </si>
+  <si>
+    <t>57,49%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>58,72%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>67,52%</t>
+  </si>
+  <si>
+    <t>60,05%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>44,82%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
   </si>
   <si>
     <t>9,7%</t>
   </si>
   <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>64,0%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>49,69%</t>
+  </si>
+  <si>
+    <t>64,93%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>65,26%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>66,48%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>47,91%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>49,5%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>57,91%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
   </si>
   <si>
     <t>6,2%</t>
   </si>
   <si>
-    <t>45,27%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
-  </si>
-  <si>
-    <t>52,74%</t>
-  </si>
-  <si>
-    <t>63,02%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>53,12%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>63,91%</t>
+  </si>
+  <si>
+    <t>70,62%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
+  </si>
+  <si>
+    <t>73,32%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>70,61%</t>
+  </si>
+  <si>
+    <t>67,98%</t>
+  </si>
+  <si>
+    <t>73,47%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>Población según motivo para dejar de fumar (multirrespuesta) en 2016</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>46,77%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>64,76%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>73,73%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>72,39%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>66,21%</t>
+  </si>
+  <si>
+    <t>52,99%</t>
+  </si>
+  <si>
+    <t>76,82%</t>
+  </si>
+  <si>
+    <t>75,17%</t>
+  </si>
+  <si>
+    <t>64,91%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>78,63%</t>
+  </si>
+  <si>
+    <t>67,26%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>76,86%</t>
+  </si>
+  <si>
+    <t>69,03%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>53,66%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>63,21%</t>
+  </si>
+  <si>
+    <t>66,34%</t>
+  </si>
+  <si>
+    <t>55,67%</t>
+  </si>
+  <si>
+    <t>75,6%</t>
+  </si>
+  <si>
+    <t>59,35%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
+  </si>
+  <si>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>57,24%</t>
+  </si>
+  <si>
+    <t>49,27%</t>
+  </si>
+  <si>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>72,65%</t>
+  </si>
+  <si>
+    <t>58,44%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>61,85%</t>
+  </si>
+  <si>
+    <t>54,19%</t>
+  </si>
+  <si>
+    <t>68,98%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>51,47%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>64,33%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>53,69%</t>
+  </si>
+  <si>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>61,55%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>48,48%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>53,45%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>61,51%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>54,5%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>62,96%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
   </si>
   <si>
     <t>4,94%</t>
   </si>
   <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>57,47%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>61,65%</t>
-  </si>
-  <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>60,06%</t>
-  </si>
-  <si>
-    <t>71,86%</t>
-  </si>
-  <si>
-    <t>59,96%</t>
-  </si>
-  <si>
-    <t>56,47%</t>
-  </si>
-  <si>
-    <t>63,24%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según motivo para dejar de fumar en 2012</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>41,73%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>60,31%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>74,08%</t>
-  </si>
-  <si>
-    <t>48,55%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>75,46%</t>
-  </si>
-  <si>
-    <t>63,65%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>73,81%</t>
-  </si>
-  <si>
-    <t>61,88%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>67,34%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>81,86%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>69,64%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>79,35%</t>
-  </si>
-  <si>
-    <t>73,63%</t>
-  </si>
-  <si>
-    <t>84,13%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>65,73%</t>
-  </si>
-  <si>
-    <t>57,49%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>67,52%</t>
-  </si>
-  <si>
-    <t>60,05%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>60,43%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>52,79%</t>
-  </si>
-  <si>
-    <t>46,32%</t>
-  </si>
-  <si>
-    <t>58,44%</t>
-  </si>
-  <si>
-    <t>71,75%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>53,8%</t>
-  </si>
-  <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>60,04%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>63,91%</t>
-  </si>
-  <si>
-    <t>70,62%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
-  </si>
-  <si>
-    <t>73,32%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>70,61%</t>
-  </si>
-  <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>Población según motivo para dejar de fumar en 2016</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>46,77%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>43,58%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>64,76%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>73,73%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>72,39%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>66,21%</t>
-  </si>
-  <si>
-    <t>52,99%</t>
-  </si>
-  <si>
-    <t>76,82%</t>
-  </si>
-  <si>
-    <t>75,17%</t>
-  </si>
-  <si>
-    <t>64,91%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>78,63%</t>
-  </si>
-  <si>
-    <t>67,26%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>65,08%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>76,86%</t>
-  </si>
-  <si>
-    <t>69,03%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>63,21%</t>
-  </si>
-  <si>
-    <t>66,34%</t>
-  </si>
-  <si>
-    <t>55,67%</t>
-  </si>
-  <si>
-    <t>75,6%</t>
-  </si>
-  <si>
-    <t>59,35%</t>
-  </si>
-  <si>
-    <t>52,05%</t>
-  </si>
-  <si>
-    <t>66,59%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>57,24%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>72,65%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>61,85%</t>
-  </si>
-  <si>
-    <t>54,19%</t>
-  </si>
-  <si>
-    <t>68,98%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>45,36%</t>
-  </si>
-  <si>
-    <t>58,65%</t>
-  </si>
-  <si>
-    <t>67,48%</t>
-  </si>
-  <si>
-    <t>47,71%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>54,04%</t>
-  </si>
-  <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>60,2%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
     <t>6,53%</t>
   </si>
   <si>
@@ -2743,9 +3046,6 @@
     <t>66,77%</t>
   </si>
   <si>
-    <t>9,47%</t>
-  </si>
-  <si>
     <t>7,27%</t>
   </si>
   <si>
@@ -2756,9 +3056,6 @@
   </si>
   <si>
     <t>9,14%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
   </si>
   <si>
     <t>10,69%</t>
@@ -3176,8 +3473,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D95DE213-6F20-4573-A605-FFA8CA95F82C}">
-  <dimension ref="A1:K46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{525BAC71-1840-41DC-824E-579AC4FD18E5}">
+  <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4276,19 +4573,19 @@
         <v>255</v>
       </c>
       <c r="G34" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H34" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="H34" s="7" t="s">
+      <c r="I34" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="I34" s="7" t="s">
+      <c r="J34" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="J34" s="7" t="s">
+      <c r="K34" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -4297,13 +4594,13 @@
         <v>16</v>
       </c>
       <c r="C35" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="E35" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>9</v>
@@ -4312,16 +4609,16 @@
         <v>10</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>74</v>
+        <v>262</v>
       </c>
       <c r="I35" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="J35" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="J35" s="7" t="s">
+      <c r="K35" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -4330,31 +4627,31 @@
         <v>21</v>
       </c>
       <c r="C36" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E36" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="F36" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="G36" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H36" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="I36" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="G36" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H36" s="7" t="s">
+      <c r="J36" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="I36" s="7" t="s">
+      <c r="K36" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -4363,13 +4660,13 @@
         <v>27</v>
       </c>
       <c r="C37" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="E37" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>9</v>
@@ -4378,16 +4675,16 @@
         <v>10</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>74</v>
+        <v>262</v>
       </c>
       <c r="I37" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -4396,31 +4693,31 @@
         <v>34</v>
       </c>
       <c r="C38" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="E38" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="F38" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="G38" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="H38" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="I38" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="G38" s="7" t="s">
+      <c r="J38" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="H38" s="7" t="s">
+      <c r="K38" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="I38" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -4429,66 +4726,66 @@
         <v>44</v>
       </c>
       <c r="C39" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H39" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="I39" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="J39" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="K39" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="I39" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="J39" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>294</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="F40" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="G40" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="H40" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="I40" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="G40" s="7" t="s">
+      <c r="J40" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="H40" s="7" t="s">
+      <c r="K40" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="I40" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="J40" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -4497,31 +4794,31 @@
         <v>16</v>
       </c>
       <c r="C41" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H41" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="I41" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="J41" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="F41" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G41" s="7" t="s">
+      <c r="K41" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="H41" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="I41" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="J41" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
@@ -4530,31 +4827,31 @@
         <v>21</v>
       </c>
       <c r="C42" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="F42" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="G42" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H42" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="I42" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="J42" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="G42" s="7" t="s">
+      <c r="K42" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="H42" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="I42" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="J42" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
@@ -4563,31 +4860,31 @@
         <v>27</v>
       </c>
       <c r="C43" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="K43" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="H43" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="I43" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="J43" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
@@ -4596,31 +4893,31 @@
         <v>34</v>
       </c>
       <c r="C44" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="J44" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="K44" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="H44" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="I44" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="J44" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
@@ -4629,45 +4926,246 @@
         <v>44</v>
       </c>
       <c r="C45" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="G46" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="H46" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="I46" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="E51" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="F51" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="G45" s="7" t="s">
+      <c r="G51" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="H45" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="I45" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>347</v>
+      <c r="H51" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>384</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
@@ -4680,8 +5178,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{410DA3B8-4D44-49A0-9C80-AE4EF97D5477}">
-  <dimension ref="A1:K46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{656C895A-5543-4E1B-AD57-B7F8B6202FBF}">
+  <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4697,7 +5195,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>348</v>
+        <v>385</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4774,25 +5272,25 @@
         <v>10</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>349</v>
+        <v>386</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>350</v>
+        <v>387</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>9</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>351</v>
+        <v>388</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>352</v>
+        <v>389</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>9</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>353</v>
+        <v>390</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -4801,7 +5299,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>354</v>
+        <v>391</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>9</v>
@@ -4816,7 +5314,7 @@
         <v>9</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>355</v>
+        <v>392</v>
       </c>
       <c r="I5" s="7" t="s">
         <v>225</v>
@@ -4825,7 +5323,7 @@
         <v>9</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>356</v>
+        <v>393</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -4834,7 +5332,7 @@
         <v>21</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>357</v>
+        <v>394</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>9</v>
@@ -4843,22 +5341,22 @@
         <v>18</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>358</v>
+        <v>395</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>9</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>359</v>
+        <v>396</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>360</v>
+        <v>397</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>361</v>
+        <v>398</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>362</v>
+        <v>399</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -4867,31 +5365,31 @@
         <v>27</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>363</v>
+        <v>400</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>364</v>
+        <v>401</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>365</v>
+        <v>402</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>9</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>366</v>
+        <v>403</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>367</v>
+        <v>404</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>368</v>
+        <v>405</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>369</v>
+        <v>406</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -4900,31 +5398,31 @@
         <v>34</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>370</v>
+        <v>407</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>371</v>
+        <v>408</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>372</v>
+        <v>329</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>373</v>
+        <v>409</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>374</v>
+        <v>410</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>375</v>
+        <v>411</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>376</v>
+        <v>412</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>377</v>
+        <v>413</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>378</v>
+        <v>414</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -4939,25 +5437,25 @@
         <v>10</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>349</v>
+        <v>386</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>379</v>
+        <v>415</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>9</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>380</v>
+        <v>416</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>381</v>
+        <v>417</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>9</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>382</v>
+        <v>418</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -4968,31 +5466,31 @@
         <v>8</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>383</v>
+        <v>419</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>384</v>
+        <v>420</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>385</v>
+        <v>421</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>185</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>386</v>
+        <v>422</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>387</v>
+        <v>423</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>388</v>
+        <v>424</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>389</v>
+        <v>425</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>390</v>
+        <v>426</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -5001,31 +5499,31 @@
         <v>16</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>391</v>
+        <v>427</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>392</v>
+        <v>428</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>393</v>
+        <v>429</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>394</v>
+        <v>430</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>395</v>
+        <v>431</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>396</v>
+        <v>432</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>397</v>
+        <v>433</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>398</v>
+        <v>434</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>399</v>
+        <v>435</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -5034,31 +5532,31 @@
         <v>21</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>400</v>
+        <v>436</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>401</v>
+        <v>437</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>218</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>402</v>
+        <v>438</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>49</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>308</v>
+        <v>347</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>403</v>
+        <v>439</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>404</v>
+        <v>440</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>405</v>
+        <v>441</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -5067,13 +5565,13 @@
         <v>27</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>388</v>
+        <v>424</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>406</v>
+        <v>442</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>9</v>
@@ -5082,16 +5580,16 @@
         <v>10</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>408</v>
+        <v>444</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>409</v>
+        <v>445</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>410</v>
+        <v>446</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>411</v>
+        <v>447</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -5100,31 +5598,31 @@
         <v>34</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -5133,31 +5631,31 @@
         <v>44</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>420</v>
+        <v>456</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>421</v>
+        <v>457</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>422</v>
+        <v>458</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>423</v>
+        <v>459</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>424</v>
+        <v>460</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>425</v>
+        <v>461</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>426</v>
+        <v>462</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>427</v>
+        <v>463</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>428</v>
+        <v>464</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -5168,31 +5666,31 @@
         <v>8</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>429</v>
+        <v>465</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>430</v>
+        <v>466</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>431</v>
+        <v>467</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>432</v>
+        <v>468</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>403</v>
+        <v>439</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>433</v>
+        <v>469</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>434</v>
+        <v>470</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>435</v>
+        <v>471</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -5201,28 +5699,28 @@
         <v>16</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>436</v>
+        <v>472</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>437</v>
+        <v>473</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>438</v>
+        <v>474</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>439</v>
+        <v>475</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>105</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>440</v>
+        <v>476</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>441</v>
+        <v>477</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>442</v>
+        <v>478</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>17</v>
@@ -5234,31 +5732,31 @@
         <v>21</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>443</v>
+        <v>479</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>185</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>444</v>
+        <v>263</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>445</v>
+        <v>480</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>446</v>
+        <v>336</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>447</v>
+        <v>481</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>448</v>
+        <v>482</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>449</v>
+        <v>483</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>450</v>
+        <v>484</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -5270,28 +5768,28 @@
         <v>103</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>451</v>
+        <v>485</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>436</v>
+        <v>472</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>452</v>
+        <v>486</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>453</v>
+        <v>487</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>454</v>
+        <v>488</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>156</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>455</v>
+        <v>489</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>456</v>
+        <v>490</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -5300,31 +5798,31 @@
         <v>34</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>457</v>
+        <v>491</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>458</v>
+        <v>492</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>459</v>
+        <v>493</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>460</v>
+        <v>494</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>461</v>
+        <v>495</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>463</v>
+        <v>497</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>464</v>
+        <v>498</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>465</v>
+        <v>499</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -5333,31 +5831,31 @@
         <v>44</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>466</v>
+        <v>500</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>467</v>
+        <v>501</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>468</v>
+        <v>502</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>469</v>
+        <v>503</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>9</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>470</v>
+        <v>504</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>406</v>
+        <v>442</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>410</v>
+        <v>446</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>318</v>
+        <v>357</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -5368,31 +5866,31 @@
         <v>8</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>471</v>
+        <v>505</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>352</v>
+        <v>389</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>472</v>
+        <v>506</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>473</v>
+        <v>507</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>474</v>
+        <v>508</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>475</v>
+        <v>509</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>476</v>
+        <v>510</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>477</v>
+        <v>511</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>478</v>
+        <v>512</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -5401,31 +5899,31 @@
         <v>16</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>479</v>
+        <v>513</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>105</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>396</v>
+        <v>432</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>159</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>480</v>
+        <v>514</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>481</v>
+        <v>515</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>435</v>
+        <v>471</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>482</v>
+        <v>516</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>483</v>
+        <v>517</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -5434,31 +5932,31 @@
         <v>21</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>484</v>
+        <v>518</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>485</v>
+        <v>519</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>486</v>
+        <v>520</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>61</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>487</v>
+        <v>521</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>264</v>
+        <v>522</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>488</v>
+        <v>523</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>456</v>
+        <v>490</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>489</v>
+        <v>524</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -5467,31 +5965,31 @@
         <v>27</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>490</v>
+        <v>525</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>491</v>
+        <v>526</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>492</v>
+        <v>527</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>493</v>
+        <v>273</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>494</v>
+        <v>528</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>495</v>
+        <v>529</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>275</v>
+        <v>530</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>455</v>
+        <v>489</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>496</v>
+        <v>531</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -5500,31 +5998,31 @@
         <v>34</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>497</v>
+        <v>532</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>498</v>
+        <v>533</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>499</v>
+        <v>534</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>500</v>
+        <v>535</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>501</v>
+        <v>536</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>502</v>
+        <v>537</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>503</v>
+        <v>538</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>504</v>
+        <v>539</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>505</v>
+        <v>540</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -5533,31 +6031,31 @@
         <v>44</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>395</v>
+        <v>431</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>506</v>
+        <v>541</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>507</v>
+        <v>542</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>508</v>
+        <v>543</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>391</v>
+        <v>427</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>509</v>
+        <v>544</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>510</v>
+        <v>545</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>511</v>
+        <v>546</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -5568,31 +6066,31 @@
         <v>8</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>512</v>
+        <v>547</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>218</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>513</v>
+        <v>548</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>514</v>
+        <v>549</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>515</v>
+        <v>550</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>516</v>
+        <v>551</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>517</v>
+        <v>552</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>178</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>518</v>
+        <v>553</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -5601,31 +6099,31 @@
         <v>16</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>520</v>
+        <v>555</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>305</v>
+        <v>344</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>521</v>
+        <v>556</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>522</v>
+        <v>557</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>523</v>
+        <v>558</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>524</v>
+        <v>559</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>525</v>
+        <v>560</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -5634,31 +6132,31 @@
         <v>21</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>527</v>
+        <v>562</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>529</v>
+        <v>564</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>530</v>
+        <v>565</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>531</v>
+        <v>566</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>320</v>
+        <v>359</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>452</v>
+        <v>486</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>533</v>
+        <v>568</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -5667,13 +6165,13 @@
         <v>27</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>534</v>
+        <v>569</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>535</v>
+        <v>570</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>536</v>
+        <v>571</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>150</v>
@@ -5682,16 +6180,16 @@
         <v>9</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>537</v>
+        <v>572</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>386</v>
+        <v>422</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>538</v>
+        <v>573</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>539</v>
+        <v>574</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -5700,31 +6198,31 @@
         <v>34</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>540</v>
+        <v>575</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>541</v>
+        <v>576</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>542</v>
+        <v>577</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>543</v>
+        <v>578</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>544</v>
+        <v>579</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>545</v>
+        <v>580</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>546</v>
+        <v>581</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>547</v>
+        <v>582</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>548</v>
+        <v>583</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -5733,13 +6231,13 @@
         <v>44</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>324</v>
+        <v>363</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>549</v>
+        <v>584</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>383</v>
+        <v>419</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>9</v>
@@ -5748,16 +6246,16 @@
         <v>10</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>550</v>
+        <v>585</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>551</v>
+        <v>586</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>552</v>
+        <v>587</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>553</v>
+        <v>588</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -5768,31 +6266,31 @@
         <v>8</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>554</v>
+        <v>306</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>555</v>
+        <v>589</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>556</v>
+        <v>590</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>557</v>
+        <v>591</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>558</v>
+        <v>592</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>559</v>
+        <v>593</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>560</v>
+        <v>594</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>561</v>
+        <v>595</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>562</v>
+        <v>596</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -5801,31 +6299,31 @@
         <v>16</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>563</v>
+        <v>597</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>565</v>
+        <v>599</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>566</v>
+        <v>600</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>9</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>567</v>
+        <v>601</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>568</v>
+        <v>116</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>316</v>
+        <v>602</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>569</v>
+        <v>603</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -5834,13 +6332,13 @@
         <v>21</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>570</v>
+        <v>604</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>571</v>
+        <v>605</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>572</v>
+        <v>606</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>9</v>
@@ -5849,16 +6347,16 @@
         <v>10</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>349</v>
+        <v>607</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>573</v>
+        <v>608</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>574</v>
+        <v>609</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>575</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -5867,13 +6365,13 @@
         <v>27</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>576</v>
+        <v>610</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>577</v>
+        <v>611</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>496</v>
+        <v>612</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>9</v>
@@ -5882,16 +6380,16 @@
         <v>10</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>349</v>
+        <v>607</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>578</v>
+        <v>508</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>455</v>
+        <v>613</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>321</v>
+        <v>614</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -5900,31 +6398,31 @@
         <v>34</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>579</v>
+        <v>615</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>580</v>
+        <v>616</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>581</v>
+        <v>617</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>582</v>
+        <v>618</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>583</v>
+        <v>619</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>584</v>
+        <v>620</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>585</v>
+        <v>370</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>586</v>
+        <v>621</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>587</v>
+        <v>622</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -5933,13 +6431,13 @@
         <v>44</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>588</v>
+        <v>623</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>589</v>
+        <v>9</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>590</v>
+        <v>624</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>9</v>
@@ -5948,51 +6446,51 @@
         <v>10</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>349</v>
+        <v>607</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>591</v>
+        <v>625</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>592</v>
+        <v>9</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>593</v>
+        <v>626</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>294</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>594</v>
+        <v>627</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>595</v>
+        <v>628</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>72</v>
+        <v>629</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>596</v>
+        <v>630</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>280</v>
+        <v>9</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>597</v>
+        <v>631</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>598</v>
+        <v>632</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>599</v>
+        <v>163</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>569</v>
+        <v>633</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -6001,31 +6499,31 @@
         <v>16</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>600</v>
+        <v>199</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>601</v>
+        <v>634</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>602</v>
+        <v>635</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>603</v>
+        <v>515</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>604</v>
+        <v>9</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>605</v>
+        <v>636</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>606</v>
+        <v>637</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>607</v>
+        <v>638</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>608</v>
+        <v>639</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
@@ -6034,31 +6532,31 @@
         <v>21</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>25</v>
+        <v>640</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>354</v>
+        <v>641</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>222</v>
+        <v>642</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>609</v>
+        <v>9</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>610</v>
+        <v>643</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>611</v>
+        <v>419</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>612</v>
+        <v>641</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>613</v>
+        <v>644</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
@@ -6067,31 +6565,31 @@
         <v>27</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>329</v>
+        <v>645</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>93</v>
+        <v>625</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>614</v>
+        <v>646</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>323</v>
+        <v>9</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>615</v>
+        <v>10</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>616</v>
+        <v>643</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>617</v>
+        <v>647</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>618</v>
+        <v>648</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>619</v>
+        <v>649</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
@@ -6100,31 +6598,31 @@
         <v>34</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>419</v>
+        <v>650</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>620</v>
+        <v>651</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>621</v>
+        <v>652</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>622</v>
+        <v>653</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>623</v>
+        <v>654</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>624</v>
+        <v>329</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>625</v>
+        <v>655</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>626</v>
+        <v>656</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>627</v>
+        <v>657</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
@@ -6133,45 +6631,246 @@
         <v>44</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>628</v>
+        <v>658</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>629</v>
+        <v>570</v>
       </c>
       <c r="E45" s="7" t="s">
+        <v>659</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>660</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>667</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>668</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>672</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>673</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>675</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>676</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>677</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>678</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>680</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>681</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>685</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>686</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>687</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>688</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>689</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>691</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>693</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>694</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>695</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>696</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>697</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>699</v>
+      </c>
+      <c r="E51" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F45" s="7" t="s">
-        <v>630</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>631</v>
-      </c>
-      <c r="H45" s="7" t="s">
-        <v>632</v>
-      </c>
-      <c r="I45" s="7" t="s">
-        <v>633</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>634</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>347</v>
+      <c r="F51" s="7" t="s">
+        <v>700</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>701</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>702</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>704</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>384</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
@@ -6184,8 +6883,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DA8D134-97DB-43A6-86ED-C22937114120}">
-  <dimension ref="A1:K46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29913E23-5DC9-4FDE-A0A2-E9C541C0E8F0}">
+  <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -6201,7 +6900,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>636</v>
+        <v>706</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6278,25 +6977,25 @@
         <v>10</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>637</v>
+        <v>707</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>638</v>
+        <v>708</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>315</v>
+        <v>354</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>639</v>
+        <v>709</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>131</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>640</v>
+        <v>710</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>641</v>
+        <v>711</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -6311,25 +7010,25 @@
         <v>10</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>637</v>
+        <v>707</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>642</v>
+        <v>712</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>9</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>643</v>
+        <v>713</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>644</v>
+        <v>714</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>9</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>645</v>
+        <v>715</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -6344,25 +7043,25 @@
         <v>10</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>637</v>
+        <v>707</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>646</v>
+        <v>716</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>9</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>647</v>
+        <v>717</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>648</v>
+        <v>718</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>9</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>649</v>
+        <v>719</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -6371,22 +7070,22 @@
         <v>27</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>650</v>
+        <v>720</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>651</v>
+        <v>721</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>652</v>
+        <v>722</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>9</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>653</v>
+        <v>723</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>202</v>
@@ -6395,7 +7094,7 @@
         <v>9</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>654</v>
+        <v>724</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -6404,31 +7103,31 @@
         <v>34</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>655</v>
+        <v>725</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>656</v>
+        <v>726</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>372</v>
+        <v>329</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>657</v>
+        <v>727</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>658</v>
+        <v>728</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>659</v>
+        <v>729</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>660</v>
+        <v>730</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>661</v>
+        <v>731</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>662</v>
+        <v>732</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -6437,22 +7136,22 @@
         <v>44</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>650</v>
+        <v>720</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>651</v>
+        <v>721</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>652</v>
+        <v>722</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>9</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>663</v>
+        <v>733</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>202</v>
@@ -6461,7 +7160,7 @@
         <v>9</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>664</v>
+        <v>734</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -6472,16 +7171,16 @@
         <v>8</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>665</v>
+        <v>735</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>628</v>
+        <v>274</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>666</v>
+        <v>736</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>667</v>
+        <v>737</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>9</v>
@@ -6493,10 +7192,10 @@
         <v>181</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>668</v>
+        <v>738</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>669</v>
+        <v>739</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -6505,31 +7204,31 @@
         <v>16</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>315</v>
+        <v>354</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>670</v>
+        <v>740</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>671</v>
+        <v>741</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>672</v>
+        <v>742</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>673</v>
+        <v>743</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>427</v>
+        <v>463</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>453</v>
+        <v>487</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>674</v>
+        <v>744</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -6544,25 +7243,25 @@
         <v>221</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>675</v>
+        <v>745</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>676</v>
+        <v>746</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>677</v>
+        <v>747</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>678</v>
+        <v>748</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>473</v>
+        <v>507</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>231</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>679</v>
+        <v>749</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -6571,31 +7270,31 @@
         <v>27</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>680</v>
+        <v>750</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>681</v>
+        <v>751</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>682</v>
+        <v>752</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>173</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>683</v>
+        <v>753</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>684</v>
+        <v>754</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>685</v>
+        <v>755</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>268</v>
+        <v>317</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>686</v>
+        <v>756</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -6604,31 +7303,31 @@
         <v>34</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>687</v>
+        <v>757</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>688</v>
+        <v>758</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>689</v>
+        <v>759</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>690</v>
+        <v>760</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>691</v>
+        <v>761</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>692</v>
+        <v>762</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>693</v>
+        <v>763</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>694</v>
+        <v>764</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>695</v>
+        <v>765</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -6637,31 +7336,31 @@
         <v>44</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>696</v>
+        <v>766</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>697</v>
+        <v>767</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>15</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>698</v>
+        <v>768</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>699</v>
+        <v>769</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>700</v>
+        <v>770</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>701</v>
+        <v>771</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>471</v>
+        <v>505</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>702</v>
+        <v>772</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -6672,31 +7371,31 @@
         <v>8</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>446</v>
+        <v>336</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>395</v>
+        <v>431</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>703</v>
+        <v>773</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>704</v>
+        <v>774</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>705</v>
+        <v>775</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>706</v>
+        <v>662</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>404</v>
+        <v>440</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>707</v>
+        <v>605</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>708</v>
+        <v>776</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -6705,31 +7404,31 @@
         <v>16</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>709</v>
+        <v>777</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>710</v>
+        <v>778</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>711</v>
+        <v>779</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>712</v>
+        <v>639</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>713</v>
+        <v>780</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>714</v>
+        <v>781</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>715</v>
+        <v>782</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>180</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>716</v>
+        <v>783</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -6738,31 +7437,31 @@
         <v>21</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>717</v>
+        <v>784</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>718</v>
+        <v>785</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>719</v>
+        <v>786</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>302</v>
+        <v>341</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>681</v>
+        <v>751</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>720</v>
+        <v>787</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>721</v>
+        <v>788</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>722</v>
+        <v>789</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>723</v>
+        <v>790</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -6777,25 +7476,25 @@
         <v>9</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>724</v>
+        <v>791</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>725</v>
+        <v>792</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>9</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>317</v>
+        <v>356</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>571</v>
+        <v>271</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>726</v>
+        <v>661</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>727</v>
+        <v>793</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -6804,31 +7503,31 @@
         <v>34</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>728</v>
+        <v>794</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>729</v>
+        <v>795</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>730</v>
+        <v>796</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>731</v>
+        <v>797</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>732</v>
+        <v>798</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>733</v>
+        <v>799</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>734</v>
+        <v>800</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>735</v>
+        <v>801</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>736</v>
+        <v>802</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -6837,31 +7536,31 @@
         <v>44</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>674</v>
+        <v>744</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>737</v>
+        <v>803</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>738</v>
+        <v>804</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>739</v>
+        <v>805</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>740</v>
+        <v>806</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>741</v>
+        <v>807</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>742</v>
+        <v>808</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>743</v>
+        <v>809</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>744</v>
+        <v>810</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -6872,28 +7571,28 @@
         <v>8</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>745</v>
+        <v>811</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>746</v>
+        <v>812</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>747</v>
+        <v>813</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>748</v>
+        <v>814</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>132</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>749</v>
+        <v>815</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>750</v>
+        <v>816</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>751</v>
+        <v>817</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>232</v>
@@ -6905,31 +7604,31 @@
         <v>16</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>752</v>
+        <v>818</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>753</v>
+        <v>819</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>754</v>
+        <v>820</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>755</v>
+        <v>821</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>30</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>756</v>
+        <v>822</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>757</v>
+        <v>823</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>650</v>
+        <v>720</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>758</v>
+        <v>824</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -6938,31 +7637,31 @@
         <v>21</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>759</v>
+        <v>825</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>760</v>
+        <v>826</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>761</v>
+        <v>827</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>762</v>
+        <v>828</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>763</v>
+        <v>829</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>764</v>
+        <v>830</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>765</v>
+        <v>831</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>454</v>
+        <v>488</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>766</v>
+        <v>832</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -6971,31 +7670,31 @@
         <v>27</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>767</v>
+        <v>833</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>768</v>
+        <v>333</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>769</v>
+        <v>834</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>770</v>
+        <v>835</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>771</v>
+        <v>836</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>396</v>
+        <v>432</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>452</v>
+        <v>486</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>772</v>
+        <v>647</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>773</v>
+        <v>837</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -7004,31 +7703,31 @@
         <v>34</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>774</v>
+        <v>838</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>775</v>
+        <v>839</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>776</v>
+        <v>840</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>777</v>
+        <v>841</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>778</v>
+        <v>842</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>779</v>
+        <v>843</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>780</v>
+        <v>844</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>781</v>
+        <v>845</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>782</v>
+        <v>846</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -7040,28 +7739,28 @@
         <v>145</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>389</v>
+        <v>425</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>783</v>
+        <v>847</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>753</v>
+        <v>819</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>784</v>
+        <v>848</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>785</v>
+        <v>849</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>786</v>
+        <v>850</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>787</v>
+        <v>851</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>759</v>
+        <v>825</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -7072,31 +7771,31 @@
         <v>8</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>788</v>
+        <v>852</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>789</v>
+        <v>853</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>790</v>
+        <v>854</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>791</v>
+        <v>855</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>770</v>
+        <v>835</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>792</v>
+        <v>856</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>793</v>
+        <v>857</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>357</v>
+        <v>394</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>794</v>
+        <v>858</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -7105,31 +7804,31 @@
         <v>16</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>795</v>
+        <v>859</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>796</v>
+        <v>860</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>797</v>
+        <v>861</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>798</v>
+        <v>862</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>799</v>
+        <v>863</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>800</v>
+        <v>864</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>801</v>
+        <v>865</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>802</v>
+        <v>866</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>803</v>
+        <v>867</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -7138,31 +7837,31 @@
         <v>21</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>713</v>
+        <v>780</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>456</v>
+        <v>490</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>804</v>
+        <v>868</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>805</v>
+        <v>869</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>9</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>806</v>
+        <v>870</v>
       </c>
       <c r="I30" s="7" t="s">
         <v>134</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>807</v>
+        <v>871</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>808</v>
+        <v>872</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -7171,16 +7870,16 @@
         <v>27</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>809</v>
+        <v>873</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>144</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>810</v>
+        <v>874</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>275</v>
+        <v>530</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>9</v>
@@ -7189,13 +7888,13 @@
         <v>17</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>811</v>
+        <v>875</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>341</v>
+        <v>379</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>269</v>
+        <v>612</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -7204,31 +7903,31 @@
         <v>34</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>812</v>
+        <v>876</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>813</v>
+        <v>877</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>814</v>
+        <v>878</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>815</v>
+        <v>879</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>581</v>
+        <v>880</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>816</v>
+        <v>881</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>817</v>
+        <v>882</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>818</v>
+        <v>883</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>819</v>
+        <v>884</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -7237,31 +7936,31 @@
         <v>44</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>820</v>
+        <v>885</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>821</v>
+        <v>886</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>822</v>
+        <v>887</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>488</v>
+        <v>523</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>823</v>
+        <v>888</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>824</v>
+        <v>889</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>825</v>
+        <v>890</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>826</v>
+        <v>891</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>827</v>
+        <v>892</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -7272,31 +7971,31 @@
         <v>8</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>828</v>
+        <v>893</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>829</v>
+        <v>894</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>830</v>
+        <v>895</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>831</v>
+        <v>522</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>479</v>
+        <v>896</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>832</v>
+        <v>897</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>833</v>
+        <v>898</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>834</v>
+        <v>899</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>835</v>
+        <v>900</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -7305,31 +8004,31 @@
         <v>16</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>836</v>
+        <v>901</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>568</v>
+        <v>902</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>837</v>
+        <v>903</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>838</v>
+        <v>904</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>839</v>
+        <v>905</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>840</v>
+        <v>906</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>841</v>
+        <v>777</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>842</v>
+        <v>907</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>45</v>
+        <v>908</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -7338,31 +8037,31 @@
         <v>21</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>96</v>
+        <v>909</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>843</v>
+        <v>910</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>844</v>
+        <v>911</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>105</v>
+        <v>912</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>9</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>845</v>
+        <v>913</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>846</v>
+        <v>914</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>301</v>
+        <v>915</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>847</v>
+        <v>916</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -7371,31 +8070,31 @@
         <v>27</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>848</v>
+        <v>917</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>849</v>
+        <v>918</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>576</v>
+        <v>705</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>9</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>850</v>
+        <v>919</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>293</v>
+        <v>920</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>851</v>
+        <v>79</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>852</v>
+        <v>921</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -7404,31 +8103,31 @@
         <v>34</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>853</v>
+        <v>922</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>854</v>
+        <v>923</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>855</v>
+        <v>237</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>856</v>
+        <v>924</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>857</v>
+        <v>925</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>858</v>
+        <v>926</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>859</v>
+        <v>927</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>860</v>
+        <v>928</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>861</v>
+        <v>929</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -7437,66 +8136,66 @@
         <v>44</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>862</v>
+        <v>837</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>65</v>
+        <v>785</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>863</v>
+        <v>168</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>126</v>
+        <v>930</v>
       </c>
       <c r="G39" s="7" t="s">
         <v>9</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>864</v>
+        <v>931</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>436</v>
+        <v>932</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>865</v>
+        <v>49</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>600</v>
+        <v>933</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>294</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>866</v>
+        <v>934</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>867</v>
+        <v>931</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>868</v>
+        <v>935</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>869</v>
+        <v>9</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>870</v>
+        <v>10</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>871</v>
+        <v>936</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>872</v>
+        <v>937</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>873</v>
+        <v>931</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>565</v>
+        <v>938</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -7505,31 +8204,31 @@
         <v>16</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>874</v>
+        <v>939</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>80</v>
+        <v>940</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>875</v>
+        <v>941</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>876</v>
+        <v>942</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>877</v>
+        <v>9</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>878</v>
+        <v>329</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>879</v>
+        <v>943</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>880</v>
+        <v>944</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>881</v>
+        <v>945</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
@@ -7538,31 +8237,31 @@
         <v>21</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>882</v>
+        <v>946</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>134</v>
+        <v>430</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>883</v>
+        <v>947</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>884</v>
+        <v>9</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>885</v>
+        <v>10</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>646</v>
+        <v>936</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>886</v>
+        <v>672</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>887</v>
+        <v>948</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>888</v>
+        <v>949</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
@@ -7571,31 +8270,31 @@
         <v>27</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>889</v>
+        <v>950</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>704</v>
+        <v>470</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>890</v>
+        <v>109</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>891</v>
+        <v>9</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>892</v>
+        <v>10</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>314</v>
+        <v>936</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>293</v>
+        <v>951</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>640</v>
+        <v>952</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>893</v>
+        <v>953</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
@@ -7604,31 +8303,31 @@
         <v>34</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>894</v>
+        <v>954</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>895</v>
+        <v>955</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>896</v>
+        <v>956</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>897</v>
+        <v>329</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>898</v>
+        <v>957</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>141</v>
+        <v>958</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>899</v>
+        <v>959</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>243</v>
+        <v>960</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>900</v>
+        <v>961</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
@@ -7637,45 +8336,246 @@
         <v>44</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>901</v>
+        <v>962</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>902</v>
+        <v>248</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>903</v>
+        <v>963</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>904</v>
+        <v>9</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>905</v>
+        <v>10</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>906</v>
+        <v>936</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>907</v>
+        <v>555</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>908</v>
+        <v>56</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>319</v>
+        <v>964</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>347</v>
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>965</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>966</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>967</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>968</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>969</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>970</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>971</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>972</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>974</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>975</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>976</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>977</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>978</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>979</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>980</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>982</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>983</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>984</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>985</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>716</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>986</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>987</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>989</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>774</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>990</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>991</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>992</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>993</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>710</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>995</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>996</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>997</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>998</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>999</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>1000</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>953</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>1004</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>1005</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>1006</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>1007</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>384</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
